--- a/5DSM - Agenda aulas ABP - 2025-2.xlsx
+++ b/5DSM - Agenda aulas ABP - 2025-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pessoal\fatec\jacarei\DSM\ABP\2025-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5dsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19437528-3753-49C6-A916-193261EA8C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE172D5-F151-4FED-B9C1-F8011780BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="0" windowWidth="15975" windowHeight="12885" activeTab="2" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,13 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,25 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,42 +601,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F909374-D5BD-4605-958A-DE380CAC4265}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -673,7 +648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>45908</v>
       </c>
@@ -690,7 +665,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -707,97 +682,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -805,7 +780,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>45915</v>
       </c>
@@ -822,7 +797,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -839,105 +814,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>45922</v>
       </c>
@@ -954,7 +932,7 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,105 +949,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="B26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>45929</v>
       </c>
@@ -1086,7 +1067,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,105 +1084,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>45936</v>
       </c>
@@ -1218,7 +1202,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1235,79 +1219,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9" t="s">
+      <c r="B44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="9" t="s">
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="9" t="s">
+      <c r="B46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1328,40 +1312,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919050A3-06F3-4B9A-A699-9994F4BF1FC6}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F38"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1373,7 +1357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>45943</v>
       </c>
@@ -1390,7 +1374,7 @@
         <v>45947</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1407,105 +1391,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1513,7 +1497,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>45950</v>
       </c>
@@ -1530,7 +1514,7 @@
         <v>45954</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1547,105 +1531,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>45957</v>
       </c>
@@ -1662,7 +1646,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1679,97 +1663,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>45964</v>
       </c>
@@ -1786,7 +1770,7 @@
         <v>45968</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1803,95 +1787,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1910,40 +1894,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB79F1F7-35AB-4C0E-98B2-F7360B2E8EAB}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1955,7 +1939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>45964</v>
       </c>
@@ -1972,7 +1956,7 @@
         <v>45968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1989,97 +1973,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>45971</v>
       </c>
@@ -2096,7 +2080,7 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2113,374 +2097,353 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
         <v>45978</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="2">
         <v>45979</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="2">
         <v>45980</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="2">
         <v>45981</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="2">
         <v>45982</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>45985</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="2">
         <v>45986</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="2">
         <v>45987</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="2">
         <v>45988</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="2">
         <v>45989</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2497,26 +2460,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006795F9309C3AB34BB3D82BE70F0FEC9D" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c9a1d31a48d4168ae78733f71e7b2efa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3f78198-29fa-40dc-a64e-451b3f068329" xmlns:ns3="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e56f88943290b30cde4a9180a750d4bc" ns2:_="" ns3:_="">
     <xsd:import namespace="b3f78198-29fa-40dc-a64e-451b3f068329"/>
@@ -2717,26 +2660,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BBF6F7-45B5-4869-8DD9-1923ADFF849B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
-    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C20D006-F2DB-48CC-90F2-66BCA9E29FB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04654532-7B9D-4FE1-AA77-A4F762484E1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2753,4 +2697,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C20D006-F2DB-48CC-90F2-66BCA9E29FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BBF6F7-45B5-4869-8DD9-1923ADFF849B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
+    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5DSM - Agenda aulas ABP - 2025-2.xlsx
+++ b/5DSM - Agenda aulas ABP - 2025-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\5dsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE172D5-F151-4FED-B9C1-F8011780BE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646243A-E8FA-4522-9D9A-4B1DA802FF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -603,20 +603,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F909374-D5BD-4605-958A-DE380CAC4265}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45908</v>
       </c>
@@ -665,7 +665,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -756,7 +756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -780,7 +780,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45915</v>
       </c>
@@ -797,7 +797,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,7 +897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>45922</v>
       </c>
@@ -932,7 +932,7 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>45929</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>45933</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>45936</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1312,20 +1312,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919050A3-06F3-4B9A-A699-9994F4BF1FC6}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1357,7 +1357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45943</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>45947</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45950</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>45954</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>45957</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>45961</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>45964</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>45968</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1898,16 +1898,16 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1939,7 +1939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45964</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>45968</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45971</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>45978</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>45982</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>45985</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -2460,6 +2460,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006795F9309C3AB34BB3D82BE70F0FEC9D" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c9a1d31a48d4168ae78733f71e7b2efa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3f78198-29fa-40dc-a64e-451b3f068329" xmlns:ns3="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e56f88943290b30cde4a9180a750d4bc" ns2:_="" ns3:_="">
     <xsd:import namespace="b3f78198-29fa-40dc-a64e-451b3f068329"/>
@@ -2660,27 +2680,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BBF6F7-45B5-4869-8DD9-1923ADFF849B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
+    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C20D006-F2DB-48CC-90F2-66BCA9E29FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04654532-7B9D-4FE1-AA77-A4F762484E1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2697,23 +2716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C20D006-F2DB-48CC-90F2-66BCA9E29FB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2BBF6F7-45B5-4869-8DD9-1923ADFF849B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
-    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>